--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1298,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1333,28 +1345,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1391,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1604,10 +1616,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1651,28 +1663,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1697,28 +1709,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1835,10 +1847,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1882,28 +1894,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1928,28 +1940,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2182,10 +2194,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2229,28 +2241,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2275,28 +2287,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2471,10 +2483,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2518,28 +2530,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2564,28 +2576,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2702,10 +2714,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2749,28 +2761,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2795,28 +2807,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2962,10 +2974,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3009,28 +3021,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3055,28 +3067,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3251,10 +3263,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3298,28 +3310,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3344,28 +3356,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3482,10 +3494,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3529,28 +3541,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3575,28 +3587,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3713,10 +3725,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3760,28 +3772,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3806,28 +3818,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4031,10 +4043,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4078,28 +4090,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4124,28 +4136,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4291,10 +4303,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4338,28 +4350,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4384,28 +4396,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4493,10 +4505,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4540,28 +4552,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4586,28 +4598,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4724,10 +4736,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4771,28 +4783,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4817,28 +4829,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5013,10 +5025,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5060,28 +5072,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5106,28 +5118,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5215,10 +5227,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5262,28 +5274,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5308,28 +5320,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5504,10 +5516,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5551,28 +5563,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5597,28 +5609,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5793,10 +5805,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5840,28 +5852,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5886,28 +5898,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6024,10 +6036,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6071,28 +6083,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6117,28 +6129,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6226,10 +6238,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6273,28 +6285,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6319,28 +6331,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6457,10 +6469,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6504,28 +6516,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6550,28 +6562,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6630,10 +6642,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6677,28 +6689,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6723,28 +6735,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6803,10 +6815,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
